--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/Pomodoro.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/Pomodoro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/123/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64030875-B81F-4DF3-BC1F-F1C900914FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{64030875-B81F-4DF3-BC1F-F1C900914FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B066ADF-3267-44C4-9C66-3520B259F77A}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="2076" windowWidth="19956" windowHeight="9072" xr2:uid="{143B6E7D-2C0E-43DC-B441-5C2EAEC712B1}"/>
+    <workbookView xWindow="324" yWindow="492" windowWidth="19956" windowHeight="9072" xr2:uid="{143B6E7D-2C0E-43DC-B441-5C2EAEC712B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Pomodoro" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>foreigned_key</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>Duy nhất</t>
   </si>
   <si>
@@ -63,47 +60,53 @@
     <t>pomodoro_begin_time</t>
   </si>
   <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>pomodoro_period_of_time</t>
+  </si>
+  <si>
+    <t>primary_key</t>
+  </si>
+  <si>
+    <t>pomodoro_id</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>Giá trị khởi tạo</t>
+  </si>
+  <si>
+    <t>Ràng buộc</t>
+  </si>
+  <si>
+    <t>Phân loại</t>
+  </si>
+  <si>
+    <t>Kiểu dữ liệu</t>
+  </si>
+  <si>
+    <t>Thuộc tính</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>PM00000</t>
+  </si>
+  <si>
     <t>required
-Khoảng thời gian đặt pomodoro</t>
-  </si>
-  <si>
-    <t>&gt;0</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>pomodoro_period_of_time</t>
-  </si>
-  <si>
-    <t>primary_key</t>
-  </si>
-  <si>
-    <t>PM00001</t>
-  </si>
-  <si>
-    <t>pomodoro_id</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Giá trị khởi tạo</t>
-  </si>
-  <si>
-    <t>Ràng buộc</t>
-  </si>
-  <si>
-    <t>Phân loại</t>
-  </si>
-  <si>
-    <t>Kiểu dữ liệu</t>
-  </si>
-  <si>
-    <t>Thuộc tính</t>
-  </si>
-  <si>
-    <t>STT</t>
+(Khoảng thời gian đặt pomodoro)</t>
+  </si>
+  <si>
+    <t>Tồn tại</t>
+  </si>
+  <si>
+    <t>TI00000</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -523,25 +526,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -549,22 +552,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -572,22 +575,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -595,22 +598,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -618,19 +621,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>0</v>

--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/Pomodoro.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/Pomodoro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\To-Do-App\ToDoApp-Doc\Document\Diagram\Thiết Kế Phần Mềm\Thiết kế lưu trữ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{64030875-B81F-4DF3-BC1F-F1C900914FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B066ADF-3267-44C4-9C66-3520B259F77A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DEB50C-7DB5-4B0C-B333-5E1E931B3DF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="492" windowWidth="19956" windowHeight="9072" xr2:uid="{143B6E7D-2C0E-43DC-B441-5C2EAEC712B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{143B6E7D-2C0E-43DC-B441-5C2EAEC712B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Pomodoro" sheetId="1" r:id="rId1"/>
@@ -516,11 +516,14 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
     <col min="27" max="27" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
